--- a/Excel-XLSX/UN-PER.xlsx
+++ b/Excel-XLSX/UN-PER.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>hiXjo2</t>
+    <t>Wy1E6y</t>
   </si>
   <si>
     <t>1970</t>
@@ -3717,7 +3717,10 @@
     <t>856</t>
   </si>
   <si>
-    <t>5628</t>
+    <t>4894</t>
+  </si>
+  <si>
+    <t>7861</t>
   </si>
   <si>
     <t>857</t>
@@ -3726,6 +3729,9 @@
     <t>858</t>
   </si>
   <si>
+    <t>7631</t>
+  </si>
+  <si>
     <t>859</t>
   </si>
   <si>
@@ -3738,7 +3744,7 @@
     <t>862</t>
   </si>
   <si>
-    <t>1222</t>
+    <t>1901</t>
   </si>
   <si>
     <t>863</t>
@@ -3855,12 +3861,12 @@
     <t>900</t>
   </si>
   <si>
-    <t>8105</t>
-  </si>
-  <si>
     <t>901</t>
   </si>
   <si>
+    <t>16328</t>
+  </si>
+  <si>
     <t>902</t>
   </si>
   <si>
@@ -3930,18 +3936,24 @@
     <t>924</t>
   </si>
   <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
     <t>925</t>
   </si>
   <si>
-    <t>1248</t>
-  </si>
-  <si>
     <t>926</t>
   </si>
   <si>
     <t>927</t>
   </si>
   <si>
+    <t>2313</t>
+  </si>
+  <si>
     <t>928</t>
   </si>
   <si>
@@ -3955,6 +3967,18 @@
   </si>
   <si>
     <t>932</t>
+  </si>
+  <si>
+    <t>4942</t>
+  </si>
+  <si>
+    <t>522732</t>
+  </si>
+  <si>
+    <t>1135215</t>
+  </si>
+  <si>
+    <t>933</t>
   </si>
 </sst>
 </file>
@@ -4339,7 +4363,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V933"/>
+  <dimension ref="A1:V934"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -61239,7 +61263,7 @@
         <v>32</v>
       </c>
       <c r="O837" s="2" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="P837" s="2" t="s">
         <v>32</v>
@@ -61647,7 +61671,7 @@
         <v>32</v>
       </c>
       <c r="O843" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P843" s="2" t="s">
         <v>32</v>
@@ -61715,7 +61739,7 @@
         <v>32</v>
       </c>
       <c r="O844" s="2" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="P844" s="2" t="s">
         <v>32</v>
@@ -61851,7 +61875,7 @@
         <v>109</v>
       </c>
       <c r="O846" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P846" s="2" t="s">
         <v>32</v>
@@ -62055,7 +62079,7 @@
         <v>94</v>
       </c>
       <c r="O849" s="2" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="P849" s="2" t="s">
         <v>32</v>
@@ -62123,7 +62147,7 @@
         <v>43</v>
       </c>
       <c r="O850" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="P850" s="2" t="s">
         <v>32</v>
@@ -62191,7 +62215,7 @@
         <v>32</v>
       </c>
       <c r="O851" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P851" s="2" t="s">
         <v>32</v>
@@ -62259,7 +62283,7 @@
         <v>32</v>
       </c>
       <c r="O852" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P852" s="2" t="s">
         <v>32</v>
@@ -62327,7 +62351,7 @@
         <v>32</v>
       </c>
       <c r="O853" s="2" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="P853" s="2" t="s">
         <v>32</v>
@@ -62342,7 +62366,7 @@
         <v>32</v>
       </c>
       <c r="T853" s="2" t="s">
-        <v>629</v>
+        <v>803</v>
       </c>
       <c r="U853" s="1" t="s">
         <v>33</v>
@@ -62395,7 +62419,7 @@
         <v>94</v>
       </c>
       <c r="O854" s="2" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="P854" s="2" t="s">
         <v>32</v>
@@ -62463,7 +62487,7 @@
         <v>32</v>
       </c>
       <c r="O855" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P855" s="2" t="s">
         <v>32</v>
@@ -62596,10 +62620,10 @@
         <v>30</v>
       </c>
       <c r="N857" s="2" t="s">
-        <v>1045</v>
+        <v>1024</v>
       </c>
       <c r="O857" s="2" t="s">
-        <v>1065</v>
+        <v>1233</v>
       </c>
       <c r="P857" s="2" t="s">
         <v>32</v>
@@ -62614,7 +62638,7 @@
         <v>32</v>
       </c>
       <c r="T857" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="U857" s="1" t="s">
         <v>33</v>
@@ -62634,7 +62658,7 @@
         <v>22</v>
       </c>
       <c r="D858" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E858" s="2" t="s">
         <v>1213</v>
@@ -62702,7 +62726,7 @@
         <v>22</v>
       </c>
       <c r="D859" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E859" s="2" t="s">
         <v>1213</v>
@@ -62732,10 +62756,10 @@
         <v>30</v>
       </c>
       <c r="N859" s="2" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="O859" s="2" t="s">
-        <v>1068</v>
+        <v>1237</v>
       </c>
       <c r="P859" s="2" t="s">
         <v>32</v>
@@ -62770,7 +62794,7 @@
         <v>22</v>
       </c>
       <c r="D860" s="2" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="E860" s="2" t="s">
         <v>1213</v>
@@ -62838,7 +62862,7 @@
         <v>22</v>
       </c>
       <c r="D861" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E861" s="2" t="s">
         <v>1213</v>
@@ -62906,7 +62930,7 @@
         <v>22</v>
       </c>
       <c r="D862" s="2" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="E862" s="2" t="s">
         <v>1213</v>
@@ -62939,7 +62963,7 @@
         <v>94</v>
       </c>
       <c r="O862" s="2" t="s">
-        <v>331</v>
+        <v>183</v>
       </c>
       <c r="P862" s="2" t="s">
         <v>32</v>
@@ -62974,7 +62998,7 @@
         <v>22</v>
       </c>
       <c r="D863" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="E863" s="2" t="s">
         <v>1213</v>
@@ -63004,10 +63028,10 @@
         <v>30</v>
       </c>
       <c r="N863" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O863" s="2" t="s">
-        <v>709</v>
+        <v>980</v>
       </c>
       <c r="P863" s="2" t="s">
         <v>32</v>
@@ -63022,7 +63046,7 @@
         <v>32</v>
       </c>
       <c r="T863" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="U863" s="1" t="s">
         <v>33</v>
@@ -63042,7 +63066,7 @@
         <v>22</v>
       </c>
       <c r="D864" s="2" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="E864" s="2" t="s">
         <v>1213</v>
@@ -63110,7 +63134,7 @@
         <v>22</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="E865" s="2" t="s">
         <v>1213</v>
@@ -63143,7 +63167,7 @@
         <v>32</v>
       </c>
       <c r="O865" s="2" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="P865" s="2" t="s">
         <v>32</v>
@@ -63178,7 +63202,7 @@
         <v>22</v>
       </c>
       <c r="D866" s="2" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="E866" s="2" t="s">
         <v>1213</v>
@@ -63208,10 +63232,10 @@
         <v>30</v>
       </c>
       <c r="N866" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O866" s="2" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="P866" s="2" t="s">
         <v>32</v>
@@ -63246,7 +63270,7 @@
         <v>22</v>
       </c>
       <c r="D867" s="2" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="E867" s="2" t="s">
         <v>1213</v>
@@ -63314,7 +63338,7 @@
         <v>22</v>
       </c>
       <c r="D868" s="2" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="E868" s="2" t="s">
         <v>1213</v>
@@ -63382,7 +63406,7 @@
         <v>22</v>
       </c>
       <c r="D869" s="2" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E869" s="2" t="s">
         <v>1213</v>
@@ -63415,7 +63439,7 @@
         <v>132</v>
       </c>
       <c r="O869" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P869" s="2" t="s">
         <v>32</v>
@@ -63450,7 +63474,7 @@
         <v>22</v>
       </c>
       <c r="D870" s="2" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="E870" s="2" t="s">
         <v>1213</v>
@@ -63518,7 +63542,7 @@
         <v>22</v>
       </c>
       <c r="D871" s="2" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="E871" s="2" t="s">
         <v>1213</v>
@@ -63551,7 +63575,7 @@
         <v>43</v>
       </c>
       <c r="O871" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="P871" s="2" t="s">
         <v>32</v>
@@ -63586,7 +63610,7 @@
         <v>22</v>
       </c>
       <c r="D872" s="2" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="E872" s="2" t="s">
         <v>1213</v>
@@ -63619,7 +63643,7 @@
         <v>43</v>
       </c>
       <c r="O872" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="P872" s="2" t="s">
         <v>32</v>
@@ -63654,7 +63678,7 @@
         <v>22</v>
       </c>
       <c r="D873" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="E873" s="2" t="s">
         <v>1213</v>
@@ -63687,7 +63711,7 @@
         <v>32</v>
       </c>
       <c r="O873" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P873" s="2" t="s">
         <v>32</v>
@@ -63722,7 +63746,7 @@
         <v>22</v>
       </c>
       <c r="D874" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="E874" s="2" t="s">
         <v>1213</v>
@@ -63790,7 +63814,7 @@
         <v>22</v>
       </c>
       <c r="D875" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="E875" s="2" t="s">
         <v>1213</v>
@@ -63820,10 +63844,10 @@
         <v>30</v>
       </c>
       <c r="N875" s="2" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="O875" s="2" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="P875" s="2" t="s">
         <v>32</v>
@@ -63838,7 +63862,7 @@
         <v>32</v>
       </c>
       <c r="T875" s="2" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="U875" s="1" t="s">
         <v>33</v>
@@ -63858,7 +63882,7 @@
         <v>22</v>
       </c>
       <c r="D876" s="2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="E876" s="2" t="s">
         <v>1213</v>
@@ -63891,7 +63915,7 @@
         <v>32</v>
       </c>
       <c r="O876" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P876" s="2" t="s">
         <v>32</v>
@@ -63926,7 +63950,7 @@
         <v>22</v>
       </c>
       <c r="D877" s="2" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="E877" s="2" t="s">
         <v>1213</v>
@@ -63994,7 +64018,7 @@
         <v>22</v>
       </c>
       <c r="D878" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="E878" s="2" t="s">
         <v>1213</v>
@@ -64062,7 +64086,7 @@
         <v>22</v>
       </c>
       <c r="D879" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="E879" s="2" t="s">
         <v>1213</v>
@@ -64095,7 +64119,7 @@
         <v>46</v>
       </c>
       <c r="O879" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P879" s="2" t="s">
         <v>32</v>
@@ -64130,7 +64154,7 @@
         <v>22</v>
       </c>
       <c r="D880" s="2" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E880" s="2" t="s">
         <v>1213</v>
@@ -64198,7 +64222,7 @@
         <v>22</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="E881" s="2" t="s">
         <v>1213</v>
@@ -64228,10 +64252,10 @@
         <v>30</v>
       </c>
       <c r="N881" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O881" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="P881" s="2" t="s">
         <v>32</v>
@@ -64266,7 +64290,7 @@
         <v>22</v>
       </c>
       <c r="D882" s="2" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="E882" s="2" t="s">
         <v>1213</v>
@@ -64334,22 +64358,22 @@
         <v>22</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="E883" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F883" s="2" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="G883" s="1" t="s">
-        <v>741</v>
+        <v>198</v>
       </c>
       <c r="H883" s="1" t="s">
-        <v>742</v>
+        <v>199</v>
       </c>
       <c r="I883" s="1" t="s">
-        <v>742</v>
+        <v>199</v>
       </c>
       <c r="J883" s="2" t="s">
         <v>28</v>
@@ -64367,7 +64391,7 @@
         <v>32</v>
       </c>
       <c r="O883" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="P883" s="2" t="s">
         <v>32</v>
@@ -64402,22 +64426,22 @@
         <v>22</v>
       </c>
       <c r="D884" s="2" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E884" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F884" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G884" s="1" t="s">
-        <v>872</v>
+        <v>741</v>
       </c>
       <c r="H884" s="1" t="s">
-        <v>873</v>
+        <v>742</v>
       </c>
       <c r="I884" s="1" t="s">
-        <v>873</v>
+        <v>742</v>
       </c>
       <c r="J884" s="2" t="s">
         <v>28</v>
@@ -64435,7 +64459,7 @@
         <v>32</v>
       </c>
       <c r="O884" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="P884" s="2" t="s">
         <v>32</v>
@@ -64470,22 +64494,22 @@
         <v>22</v>
       </c>
       <c r="D885" s="2" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="E885" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F885" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G885" s="1" t="s">
-        <v>1119</v>
+        <v>872</v>
       </c>
       <c r="H885" s="1" t="s">
-        <v>1120</v>
+        <v>873</v>
       </c>
       <c r="I885" s="1" t="s">
-        <v>1120</v>
+        <v>873</v>
       </c>
       <c r="J885" s="2" t="s">
         <v>28</v>
@@ -64538,22 +64562,22 @@
         <v>22</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E886" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G886" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="H886" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="I886" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="J886" s="2" t="s">
         <v>28</v>
@@ -64606,22 +64630,22 @@
         <v>22</v>
       </c>
       <c r="D887" s="2" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="E887" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F887" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G887" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="H887" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="I887" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="J887" s="2" t="s">
         <v>28</v>
@@ -64639,7 +64663,7 @@
         <v>32</v>
       </c>
       <c r="O887" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P887" s="2" t="s">
         <v>32</v>
@@ -64674,22 +64698,22 @@
         <v>22</v>
       </c>
       <c r="D888" s="2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="E888" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F888" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G888" s="1" t="s">
-        <v>476</v>
+        <v>1125</v>
       </c>
       <c r="H888" s="1" t="s">
-        <v>477</v>
+        <v>1126</v>
       </c>
       <c r="I888" s="1" t="s">
-        <v>477</v>
+        <v>1127</v>
       </c>
       <c r="J888" s="2" t="s">
         <v>28</v>
@@ -64707,7 +64731,7 @@
         <v>32</v>
       </c>
       <c r="O888" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="P888" s="2" t="s">
         <v>32</v>
@@ -64742,22 +64766,22 @@
         <v>22</v>
       </c>
       <c r="D889" s="2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E889" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F889" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="G889" s="1" t="s">
-        <v>745</v>
+        <v>476</v>
       </c>
       <c r="H889" s="1" t="s">
-        <v>746</v>
+        <v>477</v>
       </c>
       <c r="I889" s="1" t="s">
-        <v>746</v>
+        <v>477</v>
       </c>
       <c r="J889" s="2" t="s">
         <v>28</v>
@@ -64775,7 +64799,7 @@
         <v>32</v>
       </c>
       <c r="O889" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="P889" s="2" t="s">
         <v>32</v>
@@ -64810,22 +64834,22 @@
         <v>22</v>
       </c>
       <c r="D890" s="2" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="E890" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F890" s="2" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="G890" s="1" t="s">
-        <v>809</v>
+        <v>745</v>
       </c>
       <c r="H890" s="1" t="s">
-        <v>810</v>
+        <v>746</v>
       </c>
       <c r="I890" s="1" t="s">
-        <v>811</v>
+        <v>746</v>
       </c>
       <c r="J890" s="2" t="s">
         <v>28</v>
@@ -64843,7 +64867,7 @@
         <v>32</v>
       </c>
       <c r="O890" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="P890" s="2" t="s">
         <v>32</v>
@@ -64878,22 +64902,22 @@
         <v>22</v>
       </c>
       <c r="D891" s="2" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="E891" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F891" s="2" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="G891" s="1" t="s">
-        <v>1132</v>
+        <v>809</v>
       </c>
       <c r="H891" s="1" t="s">
-        <v>1133</v>
+        <v>810</v>
       </c>
       <c r="I891" s="1" t="s">
-        <v>1133</v>
+        <v>811</v>
       </c>
       <c r="J891" s="2" t="s">
         <v>28</v>
@@ -64911,7 +64935,7 @@
         <v>32</v>
       </c>
       <c r="O891" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="P891" s="2" t="s">
         <v>32</v>
@@ -64946,22 +64970,22 @@
         <v>22</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="E892" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F892" s="2" t="s">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="G892" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="H892" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="I892" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="J892" s="2" t="s">
         <v>28</v>
@@ -64979,7 +65003,7 @@
         <v>32</v>
       </c>
       <c r="O892" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="P892" s="2" t="s">
         <v>32</v>
@@ -65014,22 +65038,22 @@
         <v>22</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E893" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F893" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G893" s="1" t="s">
-        <v>479</v>
+        <v>1135</v>
       </c>
       <c r="H893" s="1" t="s">
-        <v>480</v>
+        <v>1136</v>
       </c>
       <c r="I893" s="1" t="s">
-        <v>481</v>
+        <v>1136</v>
       </c>
       <c r="J893" s="2" t="s">
         <v>28</v>
@@ -65047,7 +65071,7 @@
         <v>32</v>
       </c>
       <c r="O893" s="2" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="P893" s="2" t="s">
         <v>32</v>
@@ -65082,22 +65106,22 @@
         <v>22</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="E894" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F894" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G894" s="1" t="s">
-        <v>1139</v>
+        <v>479</v>
       </c>
       <c r="H894" s="1" t="s">
-        <v>1140</v>
+        <v>480</v>
       </c>
       <c r="I894" s="1" t="s">
-        <v>1141</v>
+        <v>481</v>
       </c>
       <c r="J894" s="2" t="s">
         <v>28</v>
@@ -65115,7 +65139,7 @@
         <v>32</v>
       </c>
       <c r="O894" s="2" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="P894" s="2" t="s">
         <v>32</v>
@@ -65150,22 +65174,22 @@
         <v>22</v>
       </c>
       <c r="D895" s="2" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="E895" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F895" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G895" s="1" t="s">
-        <v>443</v>
+        <v>1139</v>
       </c>
       <c r="H895" s="1" t="s">
-        <v>444</v>
+        <v>1140</v>
       </c>
       <c r="I895" s="1" t="s">
-        <v>445</v>
+        <v>1141</v>
       </c>
       <c r="J895" s="2" t="s">
         <v>28</v>
@@ -65183,7 +65207,7 @@
         <v>32</v>
       </c>
       <c r="O895" s="2" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="P895" s="2" t="s">
         <v>32</v>
@@ -65218,22 +65242,22 @@
         <v>22</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="E896" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F896" s="2" t="s">
-        <v>142</v>
+        <v>287</v>
       </c>
       <c r="G896" s="1" t="s">
-        <v>168</v>
+        <v>443</v>
       </c>
       <c r="H896" s="1" t="s">
-        <v>169</v>
+        <v>444</v>
       </c>
       <c r="I896" s="1" t="s">
-        <v>169</v>
+        <v>445</v>
       </c>
       <c r="J896" s="2" t="s">
         <v>28</v>
@@ -65248,10 +65272,10 @@
         <v>30</v>
       </c>
       <c r="N896" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="O896" s="2" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="P896" s="2" t="s">
         <v>32</v>
@@ -65286,22 +65310,22 @@
         <v>22</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="E897" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F897" s="2" t="s">
-        <v>288</v>
+        <v>142</v>
       </c>
       <c r="G897" s="1" t="s">
-        <v>446</v>
+        <v>168</v>
       </c>
       <c r="H897" s="1" t="s">
-        <v>447</v>
+        <v>169</v>
       </c>
       <c r="I897" s="1" t="s">
-        <v>448</v>
+        <v>169</v>
       </c>
       <c r="J897" s="2" t="s">
         <v>28</v>
@@ -65316,10 +65340,10 @@
         <v>30</v>
       </c>
       <c r="N897" s="2" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="O897" s="2" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="P897" s="2" t="s">
         <v>32</v>
@@ -65354,22 +65378,22 @@
         <v>22</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="E898" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F898" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G898" s="1" t="s">
-        <v>541</v>
+        <v>446</v>
       </c>
       <c r="H898" s="1" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
       <c r="I898" s="1" t="s">
-        <v>542</v>
+        <v>448</v>
       </c>
       <c r="J898" s="2" t="s">
         <v>28</v>
@@ -65384,10 +65408,10 @@
         <v>30</v>
       </c>
       <c r="N898" s="2" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="O898" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="P898" s="2" t="s">
         <v>32</v>
@@ -65422,22 +65446,22 @@
         <v>22</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="E899" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F899" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G899" s="1" t="s">
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="H899" s="1" t="s">
-        <v>680</v>
+        <v>542</v>
       </c>
       <c r="I899" s="1" t="s">
-        <v>680</v>
+        <v>542</v>
       </c>
       <c r="J899" s="2" t="s">
         <v>28</v>
@@ -65455,7 +65479,7 @@
         <v>32</v>
       </c>
       <c r="O899" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P899" s="2" t="s">
         <v>32</v>
@@ -65490,22 +65514,22 @@
         <v>22</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="E900" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F900" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G900" s="1" t="s">
-        <v>751</v>
+        <v>679</v>
       </c>
       <c r="H900" s="1" t="s">
-        <v>752</v>
+        <v>680</v>
       </c>
       <c r="I900" s="1" t="s">
-        <v>753</v>
+        <v>680</v>
       </c>
       <c r="J900" s="2" t="s">
         <v>28</v>
@@ -65523,7 +65547,7 @@
         <v>32</v>
       </c>
       <c r="O900" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="P900" s="2" t="s">
         <v>32</v>
@@ -65558,22 +65582,22 @@
         <v>22</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="E901" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F901" s="2" t="s">
-        <v>28</v>
+        <v>299</v>
       </c>
       <c r="G901" s="1" t="s">
-        <v>29</v>
+        <v>751</v>
       </c>
       <c r="H901" s="1" t="s">
-        <v>30</v>
+        <v>752</v>
       </c>
       <c r="I901" s="1" t="s">
-        <v>30</v>
+        <v>753</v>
       </c>
       <c r="J901" s="2" t="s">
         <v>28</v>
@@ -65591,7 +65615,7 @@
         <v>32</v>
       </c>
       <c r="O901" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="P901" s="2" t="s">
         <v>32</v>
@@ -65612,7 +65636,7 @@
         <v>33</v>
       </c>
       <c r="V901" s="2" t="s">
-        <v>1279</v>
+        <v>32</v>
       </c>
     </row>
     <row r="902">
@@ -65626,22 +65650,22 @@
         <v>22</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E902" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F902" s="2" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="G902" s="1" t="s">
-        <v>682</v>
+        <v>29</v>
       </c>
       <c r="H902" s="1" t="s">
-        <v>683</v>
+        <v>30</v>
       </c>
       <c r="I902" s="1" t="s">
-        <v>684</v>
+        <v>30</v>
       </c>
       <c r="J902" s="2" t="s">
         <v>28</v>
@@ -65656,10 +65680,10 @@
         <v>30</v>
       </c>
       <c r="N902" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O902" s="2" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="P902" s="2" t="s">
         <v>32</v>
@@ -65680,7 +65704,7 @@
         <v>33</v>
       </c>
       <c r="V902" s="2" t="s">
-        <v>32</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="903">
@@ -65694,22 +65718,22 @@
         <v>22</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="E903" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F903" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G903" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H903" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="I903" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="J903" s="2" t="s">
         <v>28</v>
@@ -65724,10 +65748,10 @@
         <v>30</v>
       </c>
       <c r="N903" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O903" s="2" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="P903" s="2" t="s">
         <v>32</v>
@@ -65762,22 +65786,22 @@
         <v>22</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="E904" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G904" s="1" t="s">
-        <v>1152</v>
+        <v>686</v>
       </c>
       <c r="H904" s="1" t="s">
-        <v>1153</v>
+        <v>687</v>
       </c>
       <c r="I904" s="1" t="s">
-        <v>1153</v>
+        <v>688</v>
       </c>
       <c r="J904" s="2" t="s">
         <v>28</v>
@@ -65795,7 +65819,7 @@
         <v>32</v>
       </c>
       <c r="O904" s="2" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="P904" s="2" t="s">
         <v>32</v>
@@ -65830,22 +65854,22 @@
         <v>22</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E905" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F905" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G905" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="H905" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="I905" s="1" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="J905" s="2" t="s">
         <v>28</v>
@@ -65863,7 +65887,7 @@
         <v>32</v>
       </c>
       <c r="O905" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P905" s="2" t="s">
         <v>32</v>
@@ -65898,22 +65922,22 @@
         <v>22</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E906" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F906" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G906" s="1" t="s">
-        <v>451</v>
+        <v>1155</v>
       </c>
       <c r="H906" s="1" t="s">
-        <v>452</v>
+        <v>1156</v>
       </c>
       <c r="I906" s="1" t="s">
-        <v>453</v>
+        <v>1157</v>
       </c>
       <c r="J906" s="2" t="s">
         <v>28</v>
@@ -65931,7 +65955,7 @@
         <v>32</v>
       </c>
       <c r="O906" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="P906" s="2" t="s">
         <v>32</v>
@@ -65966,22 +65990,22 @@
         <v>22</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E907" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F907" s="2" t="s">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="G907" s="1" t="s">
-        <v>171</v>
+        <v>451</v>
       </c>
       <c r="H907" s="1" t="s">
-        <v>172</v>
+        <v>452</v>
       </c>
       <c r="I907" s="1" t="s">
-        <v>172</v>
+        <v>453</v>
       </c>
       <c r="J907" s="2" t="s">
         <v>28</v>
@@ -65996,10 +66020,10 @@
         <v>30</v>
       </c>
       <c r="N907" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O907" s="2" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="P907" s="2" t="s">
         <v>32</v>
@@ -66034,22 +66058,22 @@
         <v>22</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E908" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F908" s="2" t="s">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="G908" s="1" t="s">
-        <v>514</v>
+        <v>171</v>
       </c>
       <c r="H908" s="1" t="s">
-        <v>515</v>
+        <v>172</v>
       </c>
       <c r="I908" s="1" t="s">
-        <v>516</v>
+        <v>172</v>
       </c>
       <c r="J908" s="2" t="s">
         <v>28</v>
@@ -66064,10 +66088,10 @@
         <v>30</v>
       </c>
       <c r="N908" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="O908" s="2" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="P908" s="2" t="s">
         <v>32</v>
@@ -66102,22 +66126,22 @@
         <v>22</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E909" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F909" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G909" s="1" t="s">
-        <v>642</v>
+        <v>514</v>
       </c>
       <c r="H909" s="1" t="s">
-        <v>643</v>
+        <v>515</v>
       </c>
       <c r="I909" s="1" t="s">
-        <v>643</v>
+        <v>516</v>
       </c>
       <c r="J909" s="2" t="s">
         <v>28</v>
@@ -66132,10 +66156,10 @@
         <v>30</v>
       </c>
       <c r="N909" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="O909" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="P909" s="2" t="s">
         <v>32</v>
@@ -66170,22 +66194,22 @@
         <v>22</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E910" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F910" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G910" s="1" t="s">
-        <v>310</v>
+        <v>642</v>
       </c>
       <c r="H910" s="1" t="s">
-        <v>311</v>
+        <v>643</v>
       </c>
       <c r="I910" s="1" t="s">
-        <v>311</v>
+        <v>643</v>
       </c>
       <c r="J910" s="2" t="s">
         <v>28</v>
@@ -66203,7 +66227,7 @@
         <v>32</v>
       </c>
       <c r="O910" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="P910" s="2" t="s">
         <v>32</v>
@@ -66238,22 +66262,22 @@
         <v>22</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E911" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F911" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G911" s="1" t="s">
-        <v>1163</v>
+        <v>310</v>
       </c>
       <c r="H911" s="1" t="s">
-        <v>1164</v>
+        <v>311</v>
       </c>
       <c r="I911" s="1" t="s">
-        <v>1164</v>
+        <v>311</v>
       </c>
       <c r="J911" s="2" t="s">
         <v>28</v>
@@ -66271,7 +66295,7 @@
         <v>32</v>
       </c>
       <c r="O911" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="P911" s="2" t="s">
         <v>32</v>
@@ -66306,22 +66330,22 @@
         <v>22</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E912" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F912" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G912" s="1" t="s">
-        <v>692</v>
+        <v>1163</v>
       </c>
       <c r="H912" s="1" t="s">
-        <v>693</v>
+        <v>1164</v>
       </c>
       <c r="I912" s="1" t="s">
-        <v>694</v>
+        <v>1164</v>
       </c>
       <c r="J912" s="2" t="s">
         <v>28</v>
@@ -66339,7 +66363,7 @@
         <v>32</v>
       </c>
       <c r="O912" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P912" s="2" t="s">
         <v>32</v>
@@ -66374,22 +66398,22 @@
         <v>22</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E913" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="G913" s="1" t="s">
-        <v>175</v>
+        <v>692</v>
       </c>
       <c r="H913" s="1" t="s">
-        <v>176</v>
+        <v>693</v>
       </c>
       <c r="I913" s="1" t="s">
-        <v>176</v>
+        <v>694</v>
       </c>
       <c r="J913" s="2" t="s">
         <v>28</v>
@@ -66407,7 +66431,7 @@
         <v>32</v>
       </c>
       <c r="O913" s="2" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="P913" s="2" t="s">
         <v>32</v>
@@ -66442,22 +66466,22 @@
         <v>22</v>
       </c>
       <c r="D914" s="2" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E914" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F914" s="2" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="G914" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="H914" s="1" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="I914" s="1" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="J914" s="2" t="s">
         <v>28</v>
@@ -66475,7 +66499,7 @@
         <v>32</v>
       </c>
       <c r="O914" s="2" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="P914" s="2" t="s">
         <v>32</v>
@@ -66510,22 +66534,22 @@
         <v>22</v>
       </c>
       <c r="D915" s="2" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E915" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F915" s="2" t="s">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="G915" s="1" t="s">
-        <v>549</v>
+        <v>70</v>
       </c>
       <c r="H915" s="1" t="s">
-        <v>550</v>
+        <v>71</v>
       </c>
       <c r="I915" s="1" t="s">
-        <v>551</v>
+        <v>72</v>
       </c>
       <c r="J915" s="2" t="s">
         <v>28</v>
@@ -66543,7 +66567,7 @@
         <v>32</v>
       </c>
       <c r="O915" s="2" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="P915" s="2" t="s">
         <v>32</v>
@@ -66555,7 +66579,7 @@
         <v>32</v>
       </c>
       <c r="S915" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="T915" s="2" t="s">
         <v>32</v>
@@ -66578,22 +66602,22 @@
         <v>22</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E916" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F916" s="2" t="s">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="G916" s="1" t="s">
-        <v>1170</v>
+        <v>549</v>
       </c>
       <c r="H916" s="1" t="s">
-        <v>1171</v>
+        <v>550</v>
       </c>
       <c r="I916" s="1" t="s">
-        <v>1172</v>
+        <v>551</v>
       </c>
       <c r="J916" s="2" t="s">
         <v>28</v>
@@ -66611,7 +66635,7 @@
         <v>32</v>
       </c>
       <c r="O916" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="P916" s="2" t="s">
         <v>32</v>
@@ -66623,7 +66647,7 @@
         <v>32</v>
       </c>
       <c r="S916" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="T916" s="2" t="s">
         <v>32</v>
@@ -66646,22 +66670,22 @@
         <v>22</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E917" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F917" s="2" t="s">
-        <v>330</v>
+        <v>177</v>
       </c>
       <c r="G917" s="1" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="H917" s="1" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="I917" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="J917" s="2" t="s">
         <v>28</v>
@@ -66679,7 +66703,7 @@
         <v>32</v>
       </c>
       <c r="O917" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="P917" s="2" t="s">
         <v>32</v>
@@ -66714,22 +66738,22 @@
         <v>22</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E918" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F918" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G918" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="H918" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="I918" s="1" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="J918" s="2" t="s">
         <v>28</v>
@@ -66747,7 +66771,7 @@
         <v>32</v>
       </c>
       <c r="O918" s="2" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="P918" s="2" t="s">
         <v>32</v>
@@ -66782,22 +66806,22 @@
         <v>22</v>
       </c>
       <c r="D919" s="2" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E919" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F919" s="2" t="s">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="G919" s="1" t="s">
-        <v>180</v>
+        <v>1177</v>
       </c>
       <c r="H919" s="1" t="s">
-        <v>181</v>
+        <v>1178</v>
       </c>
       <c r="I919" s="1" t="s">
-        <v>181</v>
+        <v>1179</v>
       </c>
       <c r="J919" s="2" t="s">
         <v>28</v>
@@ -66812,10 +66836,10 @@
         <v>30</v>
       </c>
       <c r="N919" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="O919" s="2" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="P919" s="2" t="s">
         <v>32</v>
@@ -66850,22 +66874,22 @@
         <v>22</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E920" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F920" s="2" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="G920" s="1" t="s">
-        <v>1182</v>
+        <v>180</v>
       </c>
       <c r="H920" s="1" t="s">
-        <v>1183</v>
+        <v>181</v>
       </c>
       <c r="I920" s="1" t="s">
-        <v>1184</v>
+        <v>181</v>
       </c>
       <c r="J920" s="2" t="s">
         <v>28</v>
@@ -66880,10 +66904,10 @@
         <v>30</v>
       </c>
       <c r="N920" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="O920" s="2" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="P920" s="2" t="s">
         <v>32</v>
@@ -66918,22 +66942,22 @@
         <v>22</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="E921" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F921" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G921" s="1" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="H921" s="1" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="I921" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="J921" s="2" t="s">
         <v>28</v>
@@ -66951,7 +66975,7 @@
         <v>32</v>
       </c>
       <c r="O921" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P921" s="2" t="s">
         <v>32</v>
@@ -66986,22 +67010,22 @@
         <v>22</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E922" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F922" s="2" t="s">
-        <v>91</v>
+        <v>336</v>
       </c>
       <c r="G922" s="1" t="s">
-        <v>825</v>
+        <v>1186</v>
       </c>
       <c r="H922" s="1" t="s">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="I922" s="1" t="s">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="J922" s="2" t="s">
         <v>28</v>
@@ -67016,10 +67040,10 @@
         <v>30</v>
       </c>
       <c r="N922" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O922" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P922" s="2" t="s">
         <v>32</v>
@@ -67054,22 +67078,22 @@
         <v>22</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E923" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F923" s="2" t="s">
-        <v>339</v>
+        <v>91</v>
       </c>
       <c r="G923" s="1" t="s">
-        <v>1190</v>
+        <v>825</v>
       </c>
       <c r="H923" s="1" t="s">
-        <v>1191</v>
+        <v>826</v>
       </c>
       <c r="I923" s="1" t="s">
-        <v>1192</v>
+        <v>826</v>
       </c>
       <c r="J923" s="2" t="s">
         <v>28</v>
@@ -67084,10 +67108,10 @@
         <v>30</v>
       </c>
       <c r="N923" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O923" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P923" s="2" t="s">
         <v>32</v>
@@ -67122,22 +67146,22 @@
         <v>22</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="E924" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F924" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G924" s="1" t="s">
-        <v>646</v>
+        <v>1190</v>
       </c>
       <c r="H924" s="1" t="s">
-        <v>647</v>
+        <v>1191</v>
       </c>
       <c r="I924" s="1" t="s">
-        <v>647</v>
+        <v>1192</v>
       </c>
       <c r="J924" s="2" t="s">
         <v>28</v>
@@ -67152,10 +67176,10 @@
         <v>30</v>
       </c>
       <c r="N924" s="2" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="O924" s="2" t="s">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="P924" s="2" t="s">
         <v>32</v>
@@ -67190,22 +67214,22 @@
         <v>22</v>
       </c>
       <c r="D925" s="2" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="E925" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F925" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G925" s="1" t="s">
-        <v>1195</v>
+        <v>1306</v>
       </c>
       <c r="H925" s="1" t="s">
-        <v>1196</v>
+        <v>1307</v>
       </c>
       <c r="I925" s="1" t="s">
-        <v>1196</v>
+        <v>1307</v>
       </c>
       <c r="J925" s="2" t="s">
         <v>28</v>
@@ -67258,22 +67282,22 @@
         <v>22</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="E926" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F926" s="2" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="G926" s="1" t="s">
-        <v>36</v>
+        <v>646</v>
       </c>
       <c r="H926" s="1" t="s">
-        <v>37</v>
+        <v>647</v>
       </c>
       <c r="I926" s="1" t="s">
-        <v>38</v>
+        <v>647</v>
       </c>
       <c r="J926" s="2" t="s">
         <v>28</v>
@@ -67288,10 +67312,10 @@
         <v>30</v>
       </c>
       <c r="N926" s="2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="O926" s="2" t="s">
-        <v>908</v>
+        <v>238</v>
       </c>
       <c r="P926" s="2" t="s">
         <v>32</v>
@@ -67306,7 +67330,7 @@
         <v>32</v>
       </c>
       <c r="T926" s="2" t="s">
-        <v>1305</v>
+        <v>32</v>
       </c>
       <c r="U926" s="1" t="s">
         <v>33</v>
@@ -67326,22 +67350,22 @@
         <v>22</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="E927" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F927" s="2" t="s">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="G927" s="1" t="s">
-        <v>577</v>
+        <v>1195</v>
       </c>
       <c r="H927" s="1" t="s">
-        <v>578</v>
+        <v>1196</v>
       </c>
       <c r="I927" s="1" t="s">
-        <v>578</v>
+        <v>1196</v>
       </c>
       <c r="J927" s="2" t="s">
         <v>28</v>
@@ -67356,10 +67380,10 @@
         <v>30</v>
       </c>
       <c r="N927" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="O927" s="2" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="P927" s="2" t="s">
         <v>32</v>
@@ -67394,22 +67418,22 @@
         <v>22</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E928" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F928" s="2" t="s">
-        <v>349</v>
+        <v>35</v>
       </c>
       <c r="G928" s="1" t="s">
-        <v>766</v>
+        <v>36</v>
       </c>
       <c r="H928" s="1" t="s">
-        <v>767</v>
+        <v>37</v>
       </c>
       <c r="I928" s="1" t="s">
-        <v>768</v>
+        <v>38</v>
       </c>
       <c r="J928" s="2" t="s">
         <v>28</v>
@@ -67424,10 +67448,10 @@
         <v>30</v>
       </c>
       <c r="N928" s="2" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="O928" s="2" t="s">
-        <v>43</v>
+        <v>1026</v>
       </c>
       <c r="P928" s="2" t="s">
         <v>32</v>
@@ -67442,7 +67466,7 @@
         <v>32</v>
       </c>
       <c r="T928" s="2" t="s">
-        <v>32</v>
+        <v>1311</v>
       </c>
       <c r="U928" s="1" t="s">
         <v>33</v>
@@ -67462,22 +67486,22 @@
         <v>22</v>
       </c>
       <c r="D929" s="2" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="E929" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F929" s="2" t="s">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="G929" s="1" t="s">
-        <v>770</v>
+        <v>577</v>
       </c>
       <c r="H929" s="1" t="s">
-        <v>771</v>
+        <v>578</v>
       </c>
       <c r="I929" s="1" t="s">
-        <v>771</v>
+        <v>578</v>
       </c>
       <c r="J929" s="2" t="s">
         <v>28</v>
@@ -67492,10 +67516,10 @@
         <v>30</v>
       </c>
       <c r="N929" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="O929" s="2" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="P929" s="2" t="s">
         <v>32</v>
@@ -67530,22 +67554,22 @@
         <v>22</v>
       </c>
       <c r="D930" s="2" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="E930" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F930" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G930" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="H930" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="I930" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="J930" s="2" t="s">
         <v>28</v>
@@ -67563,7 +67587,7 @@
         <v>32</v>
       </c>
       <c r="O930" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P930" s="2" t="s">
         <v>32</v>
@@ -67598,22 +67622,22 @@
         <v>22</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="E931" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F931" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G931" s="1" t="s">
-        <v>1204</v>
+        <v>770</v>
       </c>
       <c r="H931" s="1" t="s">
-        <v>1205</v>
+        <v>771</v>
       </c>
       <c r="I931" s="1" t="s">
-        <v>1206</v>
+        <v>771</v>
       </c>
       <c r="J931" s="2" t="s">
         <v>28</v>
@@ -67631,7 +67655,7 @@
         <v>32</v>
       </c>
       <c r="O931" s="2" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="P931" s="2" t="s">
         <v>32</v>
@@ -67666,22 +67690,22 @@
         <v>22</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="E932" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F932" s="2" t="s">
-        <v>183</v>
+        <v>352</v>
       </c>
       <c r="G932" s="1" t="s">
-        <v>184</v>
+        <v>1204</v>
       </c>
       <c r="H932" s="1" t="s">
-        <v>185</v>
+        <v>1205</v>
       </c>
       <c r="I932" s="1" t="s">
-        <v>185</v>
+        <v>1206</v>
       </c>
       <c r="J932" s="2" t="s">
         <v>28</v>
@@ -67696,10 +67720,10 @@
         <v>30</v>
       </c>
       <c r="N932" s="2" t="s">
-        <v>1208</v>
+        <v>32</v>
       </c>
       <c r="O932" s="2" t="s">
-        <v>1209</v>
+        <v>167</v>
       </c>
       <c r="P932" s="2" t="s">
         <v>32</v>
@@ -67716,8 +67740,8 @@
       <c r="T932" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U932" s="2" t="s">
-        <v>1210</v>
+      <c r="U932" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V932" s="2" t="s">
         <v>32</v>
@@ -67734,60 +67758,128 @@
         <v>22</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="E933" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F933" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G933" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H933" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I933" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J933" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K933" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L933" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M933" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N933" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="O933" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="P933" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q933" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R933" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S933" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T933" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U933" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="V933" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C934" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D934" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E934" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F934" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G933" s="1" t="s">
+      <c r="G934" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="H933" s="1" t="s">
+      <c r="H934" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="I933" s="1" t="s">
+      <c r="I934" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="J933" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K933" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L933" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M933" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N933" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O933" s="2" t="s">
+      <c r="J934" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K934" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L934" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M934" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O934" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P933" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q933" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R933" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S933" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T933" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U933" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V933" s="2" t="s">
+      <c r="P934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U934" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V934" s="2" t="s">
         <v>32</v>
       </c>
     </row>
